--- a/Reports Folder/Staff Performance Overview/Merged Reports SPO/merged_spo_05-12-23.xlsx
+++ b/Reports Folder/Staff Performance Overview/Merged Reports SPO/merged_spo_05-12-23.xlsx
@@ -678,7 +678,7 @@
     <row r="4" ht="20" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Celeste Perez (A)</t>
+          <t>Celeste Perez</t>
         </is>
       </c>
       <c r="B4" t="n">
